--- a/7RMART/src/test/resources/7RTestData.xlsx
+++ b/7RMART/src/test/resources/7RTestData.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\7RRepo\7RMART\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6D5197-F7FA-4E69-BE6D-6594B97A5EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EBAA7C-F13B-4DA5-8DD7-572EF9A7815A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{F68BABB4-2021-4915-B8F9-614FEC76A1AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="ManageNews" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUser" sheetId="4" r:id="rId2"/>
+    <sheet name="ManageNews" sheetId="2" r:id="rId3"/>
+    <sheet name="MangeSearchCatagory" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +49,30 @@
   </si>
   <si>
     <t>HELLO WORLD</t>
+  </si>
+  <si>
+    <t>searchcatagory</t>
+  </si>
+  <si>
+    <t>aaassdd</t>
+  </si>
+  <si>
+    <t>catagoryValue</t>
+  </si>
+  <si>
+    <t>Helloo</t>
+  </si>
+  <si>
+    <t>adminusername</t>
+  </si>
+  <si>
+    <t>adminpassword</t>
+  </si>
+  <si>
+    <t>asdgfhj</t>
+  </si>
+  <si>
+    <t>adminads</t>
   </si>
 </sst>
 </file>
@@ -452,11 +478,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF82891-B0F9-4FDB-B957-605A1BF6C909}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3A3E5D-6DF8-43A6-9E31-6D7A51D8614A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,4 +535,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF3B69-97C0-4A5D-B321-BDE9EDA85360}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>